--- a/Configs/GameConfig/Datas/SpellEffectDesc.xlsx
+++ b/Configs/GameConfig/Datas/SpellEffectDesc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\proj_card\Config\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\Lan-TEngine\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5B823-6D03-4A81-B1C3-2919CAD9A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7248CD-2519-4C5A-9084-DA50CE0FEADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能效果表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -81,14 +81,6 @@
   </si>
   <si>
     <t>Damage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,Battle.Effect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>effects</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -259,6 +251,45 @@
       <t>攻击力千分比</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.Effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle.EffectTriggerDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发参数1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发参数2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
   </si>
 </sst>
 </file>
@@ -415,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -448,6 +479,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,42 +764,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -773,320 +819,385 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="13">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1001</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="M6">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1002</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1000101</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1020101</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>1001</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1002</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>300</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1000101</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>500</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11052</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>1020101</v>
+        <v>1030101</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
+      <c r="J10">
         <v>11052</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>1030101</v>
+        <v>1040101</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11">
+      <c r="J11">
         <v>11052</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>1040101</v>
+        <v>1050101</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12">
+      <c r="J12">
         <v>11052</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>1050101</v>
+        <v>1060101</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
+      <c r="J13">
         <v>11052</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>1060101</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14">
-        <v>11052</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E4:K4"/>
+  <mergeCells count="6">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1107,28 +1218,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1136,13 +1247,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1151,16 +1262,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
